--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2377,28 +2377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>808.455685773976</v>
+        <v>920.6041262606897</v>
       </c>
       <c r="AB2" t="n">
-        <v>1106.164735823592</v>
+        <v>1259.611179737521</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000.593925948545</v>
+        <v>1139.395656618766</v>
       </c>
       <c r="AD2" t="n">
-        <v>808455.685773976</v>
+        <v>920604.1262606897</v>
       </c>
       <c r="AE2" t="n">
-        <v>1106164.735823592</v>
+        <v>1259611.179737521</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.216168447587265e-06</v>
+        <v>1.753306772582173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.98842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000593.925948545</v>
+        <v>1139395.656618766</v>
       </c>
     </row>
     <row r="3">
@@ -2483,28 +2483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>489.1563989774918</v>
+        <v>566.8567091368432</v>
       </c>
       <c r="AB3" t="n">
-        <v>669.285365138284</v>
+        <v>775.5983573940641</v>
       </c>
       <c r="AC3" t="n">
-        <v>605.4097092373951</v>
+        <v>701.5763387235053</v>
       </c>
       <c r="AD3" t="n">
-        <v>489156.3989774918</v>
+        <v>566856.7091368432</v>
       </c>
       <c r="AE3" t="n">
-        <v>669285.3651382839</v>
+        <v>775598.3573940641</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.706060025904578e-06</v>
+        <v>2.459566027867681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>605409.7092373951</v>
+        <v>701576.3387235053</v>
       </c>
     </row>
     <row r="4">
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>420.3112382105185</v>
+        <v>489.2929292283658</v>
       </c>
       <c r="AB4" t="n">
-        <v>575.0883789427754</v>
+        <v>669.4721718508196</v>
       </c>
       <c r="AC4" t="n">
-        <v>520.2027511980854</v>
+        <v>605.578687379471</v>
       </c>
       <c r="AD4" t="n">
-        <v>420311.2382105185</v>
+        <v>489292.9292283658</v>
       </c>
       <c r="AE4" t="n">
-        <v>575088.3789427754</v>
+        <v>669472.1718508196</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.896701795768626e-06</v>
+        <v>2.734407483344353e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.02430555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>520202.7511980854</v>
+        <v>605578.687379471</v>
       </c>
     </row>
     <row r="5">
@@ -2695,28 +2695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>379.1663243485396</v>
+        <v>448.0626745118153</v>
       </c>
       <c r="AB5" t="n">
-        <v>518.7920926113256</v>
+        <v>613.059118397172</v>
       </c>
       <c r="AC5" t="n">
-        <v>469.279303421775</v>
+        <v>554.5496165712218</v>
       </c>
       <c r="AD5" t="n">
-        <v>379166.3243485396</v>
+        <v>448062.6745118153</v>
       </c>
       <c r="AE5" t="n">
-        <v>518792.0926113257</v>
+        <v>613059.1183971721</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.001160881239588e-06</v>
+        <v>2.885002429609669e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.18518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>469279.303421775</v>
+        <v>554549.6165712218</v>
       </c>
     </row>
     <row r="6">
@@ -2801,28 +2801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>348.4644752663156</v>
+        <v>417.446076775612</v>
       </c>
       <c r="AB6" t="n">
-        <v>476.7844682270391</v>
+        <v>571.1681386655348</v>
       </c>
       <c r="AC6" t="n">
-        <v>431.2808277506537</v>
+        <v>516.6566531508129</v>
       </c>
       <c r="AD6" t="n">
-        <v>348464.4752663156</v>
+        <v>417446.076775612</v>
       </c>
       <c r="AE6" t="n">
-        <v>476784.4682270391</v>
+        <v>571168.1386655348</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.063290141225585e-06</v>
+        <v>2.974571972813224e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.72800925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>431280.8277506537</v>
+        <v>516656.6531508128</v>
       </c>
     </row>
     <row r="7">
@@ -2907,28 +2907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>349.2556583169817</v>
+        <v>418.237259826278</v>
       </c>
       <c r="AB7" t="n">
-        <v>477.8669997814932</v>
+        <v>572.2506702199889</v>
       </c>
       <c r="AC7" t="n">
-        <v>432.2600440128932</v>
+        <v>517.6358694130523</v>
       </c>
       <c r="AD7" t="n">
-        <v>349255.6583169817</v>
+        <v>418237.259826278</v>
       </c>
       <c r="AE7" t="n">
-        <v>477866.9997814932</v>
+        <v>572250.6702199889</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.060244074379273e-06</v>
+        <v>2.970180566637563e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.75115740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>432260.0440128932</v>
+        <v>517635.8694130523</v>
       </c>
     </row>
   </sheetData>
@@ -3204,28 +3204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>615.9823636231979</v>
+        <v>716.820764574091</v>
       </c>
       <c r="AB2" t="n">
-        <v>842.8142451332121</v>
+        <v>980.7857939905022</v>
       </c>
       <c r="AC2" t="n">
-        <v>762.3772364749201</v>
+        <v>887.1809743535553</v>
       </c>
       <c r="AD2" t="n">
-        <v>615982.3636231979</v>
+        <v>716820.764574091</v>
       </c>
       <c r="AE2" t="n">
-        <v>842814.2451332121</v>
+        <v>980785.7939905021</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.441308465238669e-06</v>
+        <v>2.110021372594195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.81712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>762377.2364749201</v>
+        <v>887180.9743535552</v>
       </c>
     </row>
     <row r="3">
@@ -3310,28 +3310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>406.0051590241785</v>
+        <v>481.6766301646341</v>
       </c>
       <c r="AB3" t="n">
-        <v>555.5141702603548</v>
+        <v>659.0512154644213</v>
       </c>
       <c r="AC3" t="n">
-        <v>502.4966775197407</v>
+        <v>596.1522924446864</v>
       </c>
       <c r="AD3" t="n">
-        <v>406005.1590241785</v>
+        <v>481676.6301646341</v>
       </c>
       <c r="AE3" t="n">
-        <v>555514.1702603549</v>
+        <v>659051.2154644213</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.897241996102362e-06</v>
+        <v>2.777490910036635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.57407407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>502496.6775197407</v>
+        <v>596152.2924446864</v>
       </c>
     </row>
     <row r="4">
@@ -3416,28 +3416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>349.9780071603174</v>
+        <v>408.9000615538897</v>
       </c>
       <c r="AB4" t="n">
-        <v>478.8553493367269</v>
+        <v>559.4751036155919</v>
       </c>
       <c r="AC4" t="n">
-        <v>433.1540668737329</v>
+        <v>506.0795849547585</v>
       </c>
       <c r="AD4" t="n">
-        <v>349978.0071603174</v>
+        <v>408900.0615538897</v>
       </c>
       <c r="AE4" t="n">
-        <v>478855.3493367269</v>
+        <v>559475.1036155919</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.071802820061495e-06</v>
+        <v>3.033041389517397e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.17361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>433154.0668737328</v>
+        <v>506079.5849547585</v>
       </c>
     </row>
     <row r="5">
@@ -3522,28 +3522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>325.2694910125193</v>
+        <v>392.5235385979719</v>
       </c>
       <c r="AB5" t="n">
-        <v>445.0480674805099</v>
+        <v>537.0680224261024</v>
       </c>
       <c r="AC5" t="n">
-        <v>402.573304549055</v>
+        <v>485.8110041454581</v>
       </c>
       <c r="AD5" t="n">
-        <v>325269.4910125193</v>
+        <v>392523.5385979719</v>
       </c>
       <c r="AE5" t="n">
-        <v>445048.0674805099</v>
+        <v>537068.0224261024</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.126675659214537e-06</v>
+        <v>3.113373161778701e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.78587962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>402573.3045490549</v>
+        <v>485811.0041454581</v>
       </c>
     </row>
   </sheetData>
@@ -3819,28 +3819,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.4546490372913</v>
+        <v>360.5077075651895</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.358817702666</v>
+        <v>493.2625499682694</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.3856252763232</v>
+        <v>446.1862644976339</v>
       </c>
       <c r="AD2" t="n">
-        <v>298454.6490372913</v>
+        <v>360507.7075651895</v>
       </c>
       <c r="AE2" t="n">
-        <v>408358.817702666</v>
+        <v>493262.5499682694</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.181731336437891e-06</v>
+        <v>3.375407674928186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.08217592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>369385.6252763232</v>
+        <v>446186.2644976339</v>
       </c>
     </row>
     <row r="3">
@@ -3925,28 +3925,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>279.7000358521382</v>
+        <v>341.838345726057</v>
       </c>
       <c r="AB3" t="n">
-        <v>382.6979285476005</v>
+        <v>467.7183054658532</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.1737753669329</v>
+        <v>423.0799268389559</v>
       </c>
       <c r="AD3" t="n">
-        <v>279700.0358521382</v>
+        <v>341838.345726057</v>
       </c>
       <c r="AE3" t="n">
-        <v>382697.9285476005</v>
+        <v>467718.3054658532</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.25035754164095e-06</v>
+        <v>3.481580885109877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.59027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>346173.775366933</v>
+        <v>423079.926838956</v>
       </c>
     </row>
   </sheetData>
@@ -4222,28 +4222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.4451118023199</v>
+        <v>470.4890852106224</v>
       </c>
       <c r="AB2" t="n">
-        <v>534.2242271905725</v>
+        <v>643.7439228986927</v>
       </c>
       <c r="AC2" t="n">
-        <v>483.2386167359155</v>
+        <v>582.305906397511</v>
       </c>
       <c r="AD2" t="n">
-        <v>390445.1118023199</v>
+        <v>470489.0852106224</v>
       </c>
       <c r="AE2" t="n">
-        <v>534224.2271905725</v>
+        <v>643743.9228986928</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.879970144760283e-06</v>
+        <v>2.841187540622416e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.85300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>483238.6167359155</v>
+        <v>582305.906397511</v>
       </c>
     </row>
     <row r="3">
@@ -4328,28 +4328,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>297.9520509546217</v>
+        <v>354.1023990453847</v>
       </c>
       <c r="AB3" t="n">
-        <v>407.6711408328949</v>
+        <v>484.4985242692044</v>
       </c>
       <c r="AC3" t="n">
-        <v>368.7635793218424</v>
+        <v>438.2586651109003</v>
       </c>
       <c r="AD3" t="n">
-        <v>297952.0509546216</v>
+        <v>354102.3990453847</v>
       </c>
       <c r="AE3" t="n">
-        <v>407671.1408328949</v>
+        <v>484498.5242692044</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.22070204667195e-06</v>
+        <v>3.356133608836414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.11574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>368763.5793218424</v>
+        <v>438258.6651109003</v>
       </c>
     </row>
     <row r="4">
@@ -4434,28 +4434,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.1494125917488</v>
+        <v>355.2997606825119</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.3094238486797</v>
+        <v>486.1368072849891</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.2455069059453</v>
+        <v>439.7405926950032</v>
       </c>
       <c r="AD4" t="n">
-        <v>299149.4125917488</v>
+        <v>355299.760682512</v>
       </c>
       <c r="AE4" t="n">
-        <v>409309.4238486797</v>
+        <v>486136.807284989</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.220238071316155e-06</v>
+        <v>3.355432405679696e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.11574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>370245.5069059453</v>
+        <v>439740.5926950031</v>
       </c>
     </row>
   </sheetData>
@@ -4731,28 +4731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.268907363606</v>
+        <v>334.6541491147146</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.2668189451123</v>
+        <v>457.8885707178287</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.4518804352782</v>
+        <v>414.1883281791638</v>
       </c>
       <c r="AD2" t="n">
-        <v>274268.907363606</v>
+        <v>334654.1491147146</v>
       </c>
       <c r="AE2" t="n">
-        <v>375266.8189451123</v>
+        <v>457888.5707178287</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.230463413853862e-06</v>
+        <v>3.525220638494432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.33680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>339451.8804352782</v>
+        <v>414188.3281791637</v>
       </c>
     </row>
   </sheetData>
@@ -5028,28 +5028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>662.0083544150183</v>
+        <v>763.6132053897306</v>
       </c>
       <c r="AB2" t="n">
-        <v>905.7890362579875</v>
+        <v>1044.809275851256</v>
       </c>
       <c r="AC2" t="n">
-        <v>819.3418019204213</v>
+        <v>945.0941449630395</v>
       </c>
       <c r="AD2" t="n">
-        <v>662008.3544150183</v>
+        <v>763613.2053897306</v>
       </c>
       <c r="AE2" t="n">
-        <v>905789.0362579875</v>
+        <v>1044809.275851256</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.381842234109803e-06</v>
+        <v>2.014568846543345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.54629629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>819341.8019204213</v>
+        <v>945094.1449630396</v>
       </c>
     </row>
     <row r="3">
@@ -5134,28 +5134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.157768058902</v>
+        <v>500.3400710762934</v>
       </c>
       <c r="AB3" t="n">
-        <v>580.3513707782541</v>
+        <v>684.5873586926558</v>
       </c>
       <c r="AC3" t="n">
-        <v>524.9634504794416</v>
+        <v>619.2513020034204</v>
       </c>
       <c r="AD3" t="n">
-        <v>424157.7680589021</v>
+        <v>500340.0710762934</v>
       </c>
       <c r="AE3" t="n">
-        <v>580351.3707782541</v>
+        <v>684587.3586926558</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.847248206120133e-06</v>
+        <v>2.693077831913331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.86921296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>524963.4504794416</v>
+        <v>619251.3020034204</v>
       </c>
     </row>
     <row r="4">
@@ -5240,28 +5240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.9501730462021</v>
+        <v>432.5730420651325</v>
       </c>
       <c r="AB4" t="n">
-        <v>499.3409272271356</v>
+        <v>591.8655199292658</v>
       </c>
       <c r="AC4" t="n">
-        <v>451.68452996197</v>
+        <v>535.3787053956904</v>
       </c>
       <c r="AD4" t="n">
-        <v>364950.173046202</v>
+        <v>432573.0420651325</v>
       </c>
       <c r="AE4" t="n">
-        <v>499340.9272271356</v>
+        <v>591865.5199292658</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.027024992392981e-06</v>
+        <v>2.955171943684546e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.37037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>451684.5299619701</v>
+        <v>535378.7053956904</v>
       </c>
     </row>
     <row r="5">
@@ -5346,28 +5346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>330.9447443288163</v>
+        <v>398.6528646937674</v>
       </c>
       <c r="AB5" t="n">
-        <v>452.8131994423732</v>
+        <v>545.4544367971528</v>
       </c>
       <c r="AC5" t="n">
-        <v>409.5973432149093</v>
+        <v>493.3970308993418</v>
       </c>
       <c r="AD5" t="n">
-        <v>330944.7443288163</v>
+        <v>398652.8646937673</v>
       </c>
       <c r="AE5" t="n">
-        <v>452813.1994423732</v>
+        <v>545454.4367971527</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.111340789728494e-06</v>
+        <v>3.078094788558378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.75694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>409597.3432149093</v>
+        <v>493397.0308993418</v>
       </c>
     </row>
     <row r="6">
@@ -5452,28 +5452,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>330.9395926267943</v>
+        <v>398.6477129917453</v>
       </c>
       <c r="AB6" t="n">
-        <v>452.8061506563897</v>
+        <v>545.4473880111692</v>
       </c>
       <c r="AC6" t="n">
-        <v>409.5909671551669</v>
+        <v>493.3906548395995</v>
       </c>
       <c r="AD6" t="n">
-        <v>330939.5926267942</v>
+        <v>398647.7129917453</v>
       </c>
       <c r="AE6" t="n">
-        <v>452806.1506563897</v>
+        <v>545447.3880111692</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.115271219617059e-06</v>
+        <v>3.083824908402432e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.72800925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>409590.967155167</v>
+        <v>493390.6548395995</v>
       </c>
     </row>
   </sheetData>
@@ -5749,28 +5749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.8778958070569</v>
+        <v>334.7108127818794</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.5223549819111</v>
+        <v>457.9661004470684</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.5419758397928</v>
+        <v>414.2584585798582</v>
       </c>
       <c r="AD2" t="n">
-        <v>267877.8958070569</v>
+        <v>334710.8127818794</v>
       </c>
       <c r="AE2" t="n">
-        <v>366522.3549819111</v>
+        <v>457966.1004470683</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.194275070073055e-06</v>
+        <v>3.515744092375826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.99074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>331541.9758397928</v>
+        <v>414258.4585798582</v>
       </c>
     </row>
   </sheetData>
@@ -6046,28 +6046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>496.4973744030042</v>
+        <v>578.8295026227332</v>
       </c>
       <c r="AB2" t="n">
-        <v>679.3296115764489</v>
+        <v>791.9800616438288</v>
       </c>
       <c r="AC2" t="n">
-        <v>614.49534689269</v>
+        <v>716.3945961115387</v>
       </c>
       <c r="AD2" t="n">
-        <v>496497.3744030042</v>
+        <v>578829.5026227332</v>
       </c>
       <c r="AE2" t="n">
-        <v>679329.6115764489</v>
+        <v>791980.0616438288</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.641727883390624e-06</v>
+        <v>2.437708479190335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.7337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>614495.3468926901</v>
+        <v>716394.5961115387</v>
       </c>
     </row>
     <row r="3">
@@ -6152,28 +6152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.8483273063646</v>
+        <v>409.7140298821478</v>
       </c>
       <c r="AB3" t="n">
-        <v>470.468450938159</v>
+        <v>560.5888109920629</v>
       </c>
       <c r="AC3" t="n">
-        <v>425.5676022872383</v>
+        <v>507.0870016623174</v>
       </c>
       <c r="AD3" t="n">
-        <v>343848.3273063646</v>
+        <v>409714.0298821479</v>
       </c>
       <c r="AE3" t="n">
-        <v>470468.450938159</v>
+        <v>560588.8109920629</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.064236733465036e-06</v>
+        <v>3.065067870950322e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>425567.6022872383</v>
+        <v>507087.0016623174</v>
       </c>
     </row>
     <row r="4">
@@ -6258,28 +6258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>306.6508432597924</v>
+        <v>372.4312049810039</v>
       </c>
       <c r="AB4" t="n">
-        <v>419.5732122284612</v>
+        <v>509.5768051601675</v>
       </c>
       <c r="AC4" t="n">
-        <v>379.5297337280781</v>
+        <v>460.9435100712183</v>
       </c>
       <c r="AD4" t="n">
-        <v>306650.8432597924</v>
+        <v>372431.2049810039</v>
       </c>
       <c r="AE4" t="n">
-        <v>419573.2122284612</v>
+        <v>509576.8051601675</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.179267958544914e-06</v>
+        <v>3.235871202967648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.86689814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>379529.7337280781</v>
+        <v>460943.5100712182</v>
       </c>
     </row>
   </sheetData>
@@ -6555,28 +6555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>580.0150834541473</v>
+        <v>663.6002341791653</v>
       </c>
       <c r="AB2" t="n">
-        <v>793.6022256415044</v>
+        <v>907.9671163800722</v>
       </c>
       <c r="AC2" t="n">
-        <v>717.8619430539976</v>
+        <v>821.3120091326088</v>
       </c>
       <c r="AD2" t="n">
-        <v>580015.0834541473</v>
+        <v>663600.2341791653</v>
       </c>
       <c r="AE2" t="n">
-        <v>793602.2256415044</v>
+        <v>907967.1163800722</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.504524165350495e-06</v>
+        <v>2.21231624362711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>717861.9430539976</v>
+        <v>821312.0091326088</v>
       </c>
     </row>
     <row r="3">
@@ -6661,28 +6661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>388.2548130179939</v>
+        <v>455.037610645147</v>
       </c>
       <c r="AB3" t="n">
-        <v>531.2273637646953</v>
+        <v>622.6025337272615</v>
       </c>
       <c r="AC3" t="n">
-        <v>480.5277697492797</v>
+        <v>563.182221736475</v>
       </c>
       <c r="AD3" t="n">
-        <v>388254.8130179939</v>
+        <v>455037.610645147</v>
       </c>
       <c r="AE3" t="n">
-        <v>531227.3637646952</v>
+        <v>622602.5337272615</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.949212191475524e-06</v>
+        <v>2.866204407207185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.28472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>480527.7697492797</v>
+        <v>563182.221736475</v>
       </c>
     </row>
     <row r="4">
@@ -6767,28 +6767,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.811992697485</v>
+        <v>392.594700816087</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.7903422193652</v>
+        <v>537.165389712383</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.2447376286231</v>
+        <v>485.8990788345919</v>
       </c>
       <c r="AD4" t="n">
-        <v>325811.992697485</v>
+        <v>392594.700816087</v>
       </c>
       <c r="AE4" t="n">
-        <v>445790.3422193652</v>
+        <v>537165.389712383</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.121756410788468e-06</v>
+        <v>3.119920756815339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.95949074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>403244.7376286231</v>
+        <v>485899.0788345919</v>
       </c>
     </row>
     <row r="5">
@@ -6873,28 +6873,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>319.7643352969575</v>
+        <v>386.5470434155595</v>
       </c>
       <c r="AB5" t="n">
-        <v>437.515670560149</v>
+        <v>528.8907180531669</v>
       </c>
       <c r="AC5" t="n">
-        <v>395.7597890189879</v>
+        <v>478.4141302249567</v>
       </c>
       <c r="AD5" t="n">
-        <v>319764.3352969575</v>
+        <v>386547.0434155595</v>
       </c>
       <c r="AE5" t="n">
-        <v>437515.670560149</v>
+        <v>528890.7180531669</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.142542888576009e-06</v>
+        <v>3.150486076745883e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.81481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>395759.7890189879</v>
+        <v>478414.1302249567</v>
       </c>
     </row>
   </sheetData>
@@ -7170,28 +7170,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>763.2720524181616</v>
+        <v>866.1707435720912</v>
       </c>
       <c r="AB2" t="n">
-        <v>1044.342495304948</v>
+        <v>1185.133024111621</v>
       </c>
       <c r="AC2" t="n">
-        <v>944.6719132969407</v>
+        <v>1072.025591635054</v>
       </c>
       <c r="AD2" t="n">
-        <v>763272.0524181616</v>
+        <v>866170.7435720912</v>
       </c>
       <c r="AE2" t="n">
-        <v>1044342.495304948</v>
+        <v>1185133.024111621</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.268135247587898e-06</v>
+        <v>1.834703210943546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.16087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>944671.9132969407</v>
+        <v>1072025.591635054</v>
       </c>
     </row>
     <row r="3">
@@ -7276,28 +7276,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>469.6907078172983</v>
+        <v>546.7580724916687</v>
       </c>
       <c r="AB3" t="n">
-        <v>642.6515477272221</v>
+        <v>748.098516046867</v>
       </c>
       <c r="AC3" t="n">
-        <v>581.3177859792473</v>
+        <v>676.701043638215</v>
       </c>
       <c r="AD3" t="n">
-        <v>469690.7078172984</v>
+        <v>546758.0724916687</v>
       </c>
       <c r="AE3" t="n">
-        <v>642651.5477272221</v>
+        <v>748098.516046867</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.751725958784536e-06</v>
+        <v>2.534348956381629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.48842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>581317.7859792473</v>
+        <v>676701.0436382149</v>
       </c>
     </row>
     <row r="4">
@@ -7382,28 +7382,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.9463165876602</v>
+        <v>464.6022782542935</v>
       </c>
       <c r="AB4" t="n">
-        <v>541.7512182739016</v>
+        <v>635.68933391345</v>
       </c>
       <c r="AC4" t="n">
-        <v>490.04724235445</v>
+        <v>575.0200360803332</v>
       </c>
       <c r="AD4" t="n">
-        <v>395946.3165876602</v>
+        <v>464602.2782542935</v>
       </c>
       <c r="AE4" t="n">
-        <v>541751.2182739016</v>
+        <v>635689.33391345</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.938544964784857e-06</v>
+        <v>2.80463355798546e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.80439814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>490047.24235445</v>
+        <v>575020.0360803332</v>
       </c>
     </row>
     <row r="5">
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>355.5857462428013</v>
+        <v>424.1563670548632</v>
       </c>
       <c r="AB5" t="n">
-        <v>486.5281053453694</v>
+        <v>580.34945386272</v>
       </c>
       <c r="AC5" t="n">
-        <v>440.0945458176911</v>
+        <v>524.9617165116356</v>
       </c>
       <c r="AD5" t="n">
-        <v>355585.7462428013</v>
+        <v>424156.3670548631</v>
       </c>
       <c r="AE5" t="n">
-        <v>486528.1053453694</v>
+        <v>580349.4538627201</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.042886211831225e-06</v>
+        <v>2.955591605523333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.99421296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>440094.5458176911</v>
+        <v>524961.7165116356</v>
       </c>
     </row>
     <row r="6">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>341.4468512238383</v>
+        <v>410.0174720359001</v>
       </c>
       <c r="AB6" t="n">
-        <v>467.1826454163991</v>
+        <v>561.0039939337498</v>
       </c>
       <c r="AC6" t="n">
-        <v>422.5953894328181</v>
+        <v>507.4625601267627</v>
       </c>
       <c r="AD6" t="n">
-        <v>341446.8512238383</v>
+        <v>410017.4720359001</v>
       </c>
       <c r="AE6" t="n">
-        <v>467182.6454163991</v>
+        <v>561003.9939337499</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.083066326751668e-06</v>
+        <v>3.013723091104887e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.70486111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>422595.3894328182</v>
+        <v>507462.5601267627</v>
       </c>
     </row>
     <row r="7">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>342.5855297867007</v>
+        <v>411.1561505987625</v>
       </c>
       <c r="AB7" t="n">
-        <v>468.7406356610601</v>
+        <v>562.5619841784109</v>
       </c>
       <c r="AC7" t="n">
-        <v>424.0046872751819</v>
+        <v>508.8718579691263</v>
       </c>
       <c r="AD7" t="n">
-        <v>342585.5297867007</v>
+        <v>411156.1505987625</v>
       </c>
       <c r="AE7" t="n">
-        <v>468740.6356610602</v>
+        <v>562561.9841784108</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.083013388523842e-06</v>
+        <v>3.013646501532316e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.70486111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>424004.6872751819</v>
+        <v>508871.8579691263</v>
       </c>
     </row>
   </sheetData>
@@ -7997,28 +7997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.192351711847</v>
+        <v>499.9693834646168</v>
       </c>
       <c r="AB2" t="n">
-        <v>584.5034220085956</v>
+        <v>684.0801675487766</v>
       </c>
       <c r="AC2" t="n">
-        <v>528.7192357677997</v>
+        <v>618.7925164704658</v>
       </c>
       <c r="AD2" t="n">
-        <v>427192.351711847</v>
+        <v>499969.3834646168</v>
       </c>
       <c r="AE2" t="n">
-        <v>584503.4220085957</v>
+        <v>684080.1675487766</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.795619691587116e-06</v>
+        <v>2.696454463514306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.46064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>528719.2357677997</v>
+        <v>618792.5164704658</v>
       </c>
     </row>
     <row r="3">
@@ -8103,28 +8103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>308.2503515877218</v>
+        <v>364.9211057286653</v>
       </c>
       <c r="AB3" t="n">
-        <v>421.7617300880617</v>
+        <v>499.3011560409224</v>
       </c>
       <c r="AC3" t="n">
-        <v>381.5093825147623</v>
+        <v>451.6485544819498</v>
       </c>
       <c r="AD3" t="n">
-        <v>308250.3515877218</v>
+        <v>364921.1057286654</v>
       </c>
       <c r="AE3" t="n">
-        <v>421761.7300880617</v>
+        <v>499301.1560409224</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.187926484792607e-06</v>
+        <v>3.285575538852328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.15046296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>381509.3825147622</v>
+        <v>451648.5544819498</v>
       </c>
     </row>
     <row r="4">
@@ -8209,28 +8209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.4188933732494</v>
+        <v>361.089647514193</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.5193599270136</v>
+        <v>494.0587858798745</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.7673368041719</v>
+        <v>446.9065087713596</v>
       </c>
       <c r="AD4" t="n">
-        <v>304418.8933732494</v>
+        <v>361089.647514193</v>
       </c>
       <c r="AE4" t="n">
-        <v>416519.3599270136</v>
+        <v>494058.7858798745</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.208085899567546e-06</v>
+        <v>3.3158486218478e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.01157407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>376767.3368041719</v>
+        <v>446906.5087713596</v>
       </c>
     </row>
   </sheetData>
@@ -8506,28 +8506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.3633305660178</v>
+        <v>396.00171764017</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.1764628975154</v>
+        <v>541.8270204380676</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.6894460876656</v>
+        <v>490.1158100664569</v>
       </c>
       <c r="AD2" t="n">
-        <v>325363.3305660178</v>
+        <v>396001.71764017</v>
       </c>
       <c r="AE2" t="n">
-        <v>445176.4628975154</v>
+        <v>541827.0204380676</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.077690526178892e-06</v>
+        <v>3.18665108970924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>402689.4460876656</v>
+        <v>490115.8100664569</v>
       </c>
     </row>
     <row r="3">
@@ -8612,28 +8612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.8964553587874</v>
+        <v>348.5913990948387</v>
       </c>
       <c r="AB3" t="n">
-        <v>391.1761430833334</v>
+        <v>476.9581310087085</v>
       </c>
       <c r="AC3" t="n">
-        <v>353.8428410066242</v>
+        <v>431.4379164001778</v>
       </c>
       <c r="AD3" t="n">
-        <v>285896.4553587874</v>
+        <v>348591.3990948386</v>
       </c>
       <c r="AE3" t="n">
-        <v>391176.1430833334</v>
+        <v>476958.1310087085</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243299648430955e-06</v>
+        <v>3.440653542548498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.38773148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>353842.8410066242</v>
+        <v>431437.9164001778</v>
       </c>
     </row>
   </sheetData>
@@ -14898,28 +14898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.9617076914944</v>
+        <v>341.8053667931738</v>
       </c>
       <c r="AB2" t="n">
-        <v>373.4782506841498</v>
+        <v>467.6731822349545</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.8340106188707</v>
+        <v>423.0391101058834</v>
       </c>
       <c r="AD2" t="n">
-        <v>272961.7076914944</v>
+        <v>341805.3667931738</v>
       </c>
       <c r="AE2" t="n">
-        <v>373478.2506841498</v>
+        <v>467673.1822349546</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.242399957581983e-06</v>
+        <v>3.503705701562974e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.92592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>337834.0106188707</v>
+        <v>423039.1101058834</v>
       </c>
     </row>
     <row r="3">
@@ -15004,28 +15004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.0110157839774</v>
+        <v>342.8546748856568</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.9139603084909</v>
+        <v>469.1088918592956</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.1326981316958</v>
+        <v>424.3377976187085</v>
       </c>
       <c r="AD3" t="n">
-        <v>274011.0157839773</v>
+        <v>342854.6748856568</v>
       </c>
       <c r="AE3" t="n">
-        <v>374913.9603084908</v>
+        <v>469108.8918592956</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.246041018719624e-06</v>
+        <v>3.509394787769277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>339132.6981316958</v>
+        <v>424337.7976187085</v>
       </c>
     </row>
   </sheetData>
@@ -15301,28 +15301,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.9069731339627</v>
+        <v>342.4475272204244</v>
       </c>
       <c r="AB2" t="n">
-        <v>378.8763369153622</v>
+        <v>468.5518144616373</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.7169110764378</v>
+        <v>423.8338869060197</v>
       </c>
       <c r="AD2" t="n">
-        <v>276906.9731339627</v>
+        <v>342447.5272204244</v>
       </c>
       <c r="AE2" t="n">
-        <v>378876.3369153622</v>
+        <v>468551.8144616373</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.111230743549981e-06</v>
+        <v>3.440622354221134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.15393518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>342716.9110764378</v>
+        <v>423833.8869060197</v>
       </c>
     </row>
   </sheetData>
@@ -15598,28 +15598,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>536.8450446476428</v>
+        <v>619.7317496938341</v>
       </c>
       <c r="AB2" t="n">
-        <v>734.5350740187473</v>
+        <v>847.9443205662958</v>
       </c>
       <c r="AC2" t="n">
-        <v>664.4320774808486</v>
+        <v>767.0177047087764</v>
       </c>
       <c r="AD2" t="n">
-        <v>536845.0446476428</v>
+        <v>619731.7496938341</v>
       </c>
       <c r="AE2" t="n">
-        <v>734535.0740187473</v>
+        <v>847944.3205662958</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.572444059056466e-06</v>
+        <v>2.323098669422284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.38773148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>664432.0774808486</v>
+        <v>767017.7047087763</v>
       </c>
     </row>
     <row r="3">
@@ -15704,28 +15704,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.5986770516868</v>
+        <v>435.1027560955343</v>
       </c>
       <c r="AB3" t="n">
-        <v>493.3870184329854</v>
+        <v>595.326786268768</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.2988538667701</v>
+        <v>538.5096333336683</v>
       </c>
       <c r="AD3" t="n">
-        <v>360598.6770516867</v>
+        <v>435102.7560955343</v>
       </c>
       <c r="AE3" t="n">
-        <v>493387.0184329854</v>
+        <v>595326.786268768</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.009772619533121e-06</v>
+        <v>2.969199490047532e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.94907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>446298.8538667701</v>
+        <v>538509.6333336682</v>
       </c>
     </row>
     <row r="4">
@@ -15810,28 +15810,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.577458623392</v>
+        <v>380.86968288259</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.4187570665279</v>
+        <v>521.1227029044884</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.3401949886173</v>
+        <v>471.3874835395904</v>
       </c>
       <c r="AD4" t="n">
-        <v>314577.458623392</v>
+        <v>380869.68288259</v>
       </c>
       <c r="AE4" t="n">
-        <v>430418.7570665278</v>
+        <v>521122.7029044884</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.155234912099517e-06</v>
+        <v>3.184102688902745e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.87268518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>389340.1949886173</v>
+        <v>471387.4835395904</v>
       </c>
     </row>
     <row r="5">
@@ -15916,28 +15916,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.9385776996535</v>
+        <v>380.2308019588513</v>
       </c>
       <c r="AB5" t="n">
-        <v>429.5446120012315</v>
+        <v>520.248557839192</v>
       </c>
       <c r="AC5" t="n">
-        <v>388.5494771014826</v>
+        <v>470.5967656524556</v>
       </c>
       <c r="AD5" t="n">
-        <v>313938.5776996535</v>
+        <v>380230.8019588513</v>
       </c>
       <c r="AE5" t="n">
-        <v>429544.6120012315</v>
+        <v>520248.557839192</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.16088500876432e-06</v>
+        <v>3.192450033260411e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.83217592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>388549.4771014826</v>
+        <v>470596.7656524556</v>
       </c>
     </row>
   </sheetData>
@@ -16213,28 +16213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>709.6442146699168</v>
+        <v>811.8214165578042</v>
       </c>
       <c r="AB2" t="n">
-        <v>970.9665218045742</v>
+        <v>1110.769877167589</v>
       </c>
       <c r="AC2" t="n">
-        <v>878.2988397236172</v>
+        <v>1004.759559066027</v>
       </c>
       <c r="AD2" t="n">
-        <v>709644.2146699168</v>
+        <v>811821.4165578042</v>
       </c>
       <c r="AE2" t="n">
-        <v>970966.5218045742</v>
+        <v>1110769.877167589</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.325656494205845e-06</v>
+        <v>1.925077286252847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.30439814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>878298.8397236172</v>
+        <v>1004759.559066027</v>
       </c>
     </row>
     <row r="3">
@@ -16319,28 +16319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>451.209606699741</v>
+        <v>527.7998600655086</v>
       </c>
       <c r="AB3" t="n">
-        <v>617.3648898495417</v>
+        <v>722.1590534280911</v>
       </c>
       <c r="AC3" t="n">
-        <v>558.4444512393657</v>
+        <v>653.2372069255105</v>
       </c>
       <c r="AD3" t="n">
-        <v>451209.606699741</v>
+        <v>527799.8600655086</v>
       </c>
       <c r="AE3" t="n">
-        <v>617364.8898495417</v>
+        <v>722159.0534280911</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.798697277441287e-06</v>
+        <v>2.612012454796142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.17592592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>558444.4512393656</v>
+        <v>653237.2069255104</v>
       </c>
     </row>
     <row r="4">
@@ -16425,28 +16425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>381.0426103809467</v>
+        <v>449.2744731065998</v>
       </c>
       <c r="AB4" t="n">
-        <v>521.3593099367628</v>
+        <v>614.7171546953372</v>
       </c>
       <c r="AC4" t="n">
-        <v>471.6015091287846</v>
+        <v>556.0494122121587</v>
       </c>
       <c r="AD4" t="n">
-        <v>381042.6103809467</v>
+        <v>449274.4731065998</v>
       </c>
       <c r="AE4" t="n">
-        <v>521359.3099367628</v>
+        <v>614717.1546953372</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.979490454243188e-06</v>
+        <v>2.874554704384965e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.60763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>471601.5091287846</v>
+        <v>556049.4122121587</v>
       </c>
     </row>
     <row r="5">
@@ -16531,28 +16531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>341.7454705742182</v>
+        <v>409.8919924452998</v>
       </c>
       <c r="AB5" t="n">
-        <v>467.5912295857449</v>
+        <v>560.8323072221216</v>
       </c>
       <c r="AC5" t="n">
-        <v>422.964978902493</v>
+        <v>507.3072589539283</v>
       </c>
       <c r="AD5" t="n">
-        <v>341745.4705742183</v>
+        <v>409891.9924452998</v>
       </c>
       <c r="AE5" t="n">
-        <v>467591.2295857449</v>
+        <v>560832.3072221216</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.081069850598079e-06</v>
+        <v>3.022065156397816e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH5" t="n">
-        <v>422964.978902493</v>
+        <v>507307.2589539284</v>
       </c>
     </row>
     <row r="6">
@@ -16637,28 +16637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>336.7892891791843</v>
+        <v>404.9358110502657</v>
       </c>
       <c r="AB6" t="n">
-        <v>460.8099635497676</v>
+        <v>554.0510411861444</v>
       </c>
       <c r="AC6" t="n">
-        <v>416.8309073794229</v>
+        <v>501.1731874308583</v>
       </c>
       <c r="AD6" t="n">
-        <v>336789.2891791842</v>
+        <v>404935.8110502657</v>
       </c>
       <c r="AE6" t="n">
-        <v>460809.9635497676</v>
+        <v>554051.0411861445</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.097563825098163e-06</v>
+        <v>3.046017195111411e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.72800925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>416830.9073794229</v>
+        <v>501173.1874308583</v>
       </c>
     </row>
   </sheetData>
@@ -16934,28 +16934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.2450162603314</v>
+        <v>365.431979078632</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.0213036031339</v>
+        <v>500.0001554964883</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.5119019961141</v>
+        <v>452.2808424105284</v>
       </c>
       <c r="AD2" t="n">
-        <v>287245.0162603314</v>
+        <v>365431.979078632</v>
       </c>
       <c r="AE2" t="n">
-        <v>393021.3036031339</v>
+        <v>500000.1554964883</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.913202607772444e-06</v>
+        <v>3.189194760378525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.74652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>355511.9019961141</v>
+        <v>452280.8424105283</v>
       </c>
     </row>
   </sheetData>
@@ -17231,28 +17231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.2567989950741</v>
+        <v>432.5690755768248</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.287489910219</v>
+        <v>591.8600928049741</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.1133856100361</v>
+        <v>535.373796228524</v>
       </c>
       <c r="AD2" t="n">
-        <v>361256.7989950741</v>
+        <v>432569.0755768248</v>
       </c>
       <c r="AE2" t="n">
-        <v>494287.489910219</v>
+        <v>591860.0928049741</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.97568522677302e-06</v>
+        <v>3.006808429063879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>447113.3856100361</v>
+        <v>535373.7962285241</v>
       </c>
     </row>
     <row r="3">
@@ -17337,28 +17337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.7795061771664</v>
+        <v>355.1492417831011</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.2255927549239</v>
+        <v>485.9308606863899</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.1240624990318</v>
+        <v>439.5543013507265</v>
       </c>
       <c r="AD3" t="n">
-        <v>291779.5061771664</v>
+        <v>355149.2417831011</v>
       </c>
       <c r="AE3" t="n">
-        <v>399225.5927549239</v>
+        <v>485930.8606863899</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.234293234407576e-06</v>
+        <v>3.400385668313202e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.22569444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>361124.0624990318</v>
+        <v>439554.3013507265</v>
       </c>
     </row>
   </sheetData>
@@ -17634,28 +17634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.67069382228</v>
+        <v>538.1667737081116</v>
       </c>
       <c r="AB2" t="n">
-        <v>635.7829431118508</v>
+        <v>736.3435220298518</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.10471134822</v>
+        <v>666.0679297519462</v>
       </c>
       <c r="AD2" t="n">
-        <v>464670.69382228</v>
+        <v>538166.7737081116</v>
       </c>
       <c r="AE2" t="n">
-        <v>635782.9431118509</v>
+        <v>736343.5220298518</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.71815429369527e-06</v>
+        <v>2.565050919036372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>575104.71134822</v>
+        <v>666067.9297519461</v>
       </c>
     </row>
     <row r="3">
@@ -17740,28 +17740,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.0641713503812</v>
+        <v>390.2233483740385</v>
       </c>
       <c r="AB3" t="n">
-        <v>444.7671400607084</v>
+        <v>533.9208006844858</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.3191884479152</v>
+        <v>482.9641488297081</v>
       </c>
       <c r="AD3" t="n">
-        <v>325064.1713503812</v>
+        <v>390223.3483740385</v>
       </c>
       <c r="AE3" t="n">
-        <v>444767.1400607083</v>
+        <v>533920.8006844858</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.129241216712424e-06</v>
+        <v>3.178766982581014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>402319.1884479152</v>
+        <v>482964.1488297081</v>
       </c>
     </row>
     <row r="4">
@@ -17846,28 +17846,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>302.3833924223061</v>
+        <v>367.627820791984</v>
       </c>
       <c r="AB4" t="n">
-        <v>413.7342977259689</v>
+        <v>503.0046030023958</v>
       </c>
       <c r="AC4" t="n">
-        <v>374.2480770307355</v>
+        <v>454.9985496632407</v>
       </c>
       <c r="AD4" t="n">
-        <v>302383.3924223061</v>
+        <v>367627.820791984</v>
       </c>
       <c r="AE4" t="n">
-        <v>413734.2977259689</v>
+        <v>503004.6030023958</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.189973182621472e-06</v>
+        <v>3.269434383955571e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.9537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>374248.0770307356</v>
+        <v>454998.5496632407</v>
       </c>
     </row>
   </sheetData>
